--- a/biology/Botanique/Amorphophallus/Amorphophallus.xlsx
+++ b/biology/Botanique/Amorphophallus/Amorphophallus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amorphophallus est un genre de 170 espèces de plantes tropicales et subtropicales de la famille des Araceae. Ce sont des plantes herbacées tubéreuses.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes typiques des basses terres que l'on rencontre de l'Afrique de l'ouest aux îles du Pacifique. On n'en trouve aucune en Amérique bien que l'on y trouve Dracontium, un genre remarquablement similaire bien qu'il ne soit pas proche de Amorphophallus. La plupart des espèces sont endémiques, à aire de distribution réduite, et croissent de préférence sur des sols perturbés dans les forêts « secondaires ».
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plus petites espèces comme les plus grosses croissent à partir d'un tubercule souterrain dont la forme varie largement d'une espèce à l'autre. Le tubercule peut être globuleux comme dans le cas d'Amorphophallus konjac, allongé pour Amophophallus longituberosus ou Amorphophallus macrorhizus ou former un réseau bizarre de racines comme pour Amorphophallus coaetaneus.
 Chaque année, du sommet du tubercule croit une feuille solitaire, dont le limbe peut atteindre plusieurs mètres de large et le pétiole plusieurs mètres de hauteur chez les plus grandes espèces. Le limbe qui s'étale horizontalement au sommet du pétiole dressé peut être divisée en de nombreuses folioles. Quand le tubercule a emmagasiné suffisamment de réserves, le développement de cette feuille est précédé par la formation d'une inflorescence unique.
@@ -581,7 +597,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Amorphophallus est formé de deux racines grecques signifiant « pénis informe ».
 </t>
@@ -612,9 +630,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (8 juillet 2013)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (8 juillet 2013) :
 Amorphophallus aberrans
 Amorphophallus abyssinicus
 Amorphophallus albispathus
@@ -809,10 +829,10 @@
 Amorphophallus yuloensis
 Amorphophallus yunnanensis
 Amorphophallus zenkeri
-Selon ITIS      (8 juillet 2013)[2] :
+Selon ITIS      (8 juillet 2013) :
 Amorphophallus konjac K. Koch
 Amorphophallus paeoniifolius (Dennst.) Nicolson
-Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2013)[3] :
+Selon World Checklist of Selected Plant Families (WCSP)  (8 juillet 2013) :
 Amorphophallus aberrans Hett. (1994)
 Amorphophallus abyssinicus (A.Rich.) N.E.Br. (1901)
 Amorphophallus albispathus Hett. (1994)
@@ -1012,7 +1032,7 @@
 Amorphophallus yuloensis H.Li (1988)
 Amorphophallus yunnanensis Engl. (1911)
 Amorphophallus zenkeri (Engl.) N.E.Br. (1901)
-Selon NCBI  (8 juillet 2013)[4] :
+Selon NCBI  (8 juillet 2013) :
 Amorphophallus abyssinicus
 Amorphophallus albus
 Amorphophallus amygdaloides
@@ -1090,7 +1110,7 @@
 Amorphophallus variabilis
 Amorphophallus yunnanensis
 Amorphophallus zenkeri
-Selon Tropicos                                           (8 juillet 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 juillet 2013) (Attention liste brute contenant possiblement des synonymes) :
 Amorphophallus aberrans Hett.
 Amorphophallus abyssinicus (A. Rich.) N.E. Br.
 Amorphophallus accrensis N.E. Br.
